--- a/output/HOD_34867354000150.xlsx
+++ b/output/HOD_34867354000150.xlsx
@@ -515,10 +515,10 @@
         <v>44165</v>
       </c>
       <c r="B12">
-        <v>0.26423458431</v>
+        <v>0.2647263146099998</v>
       </c>
       <c r="C12">
-        <v>-0.01170640824642744</v>
+        <v>-0.01132200656149318</v>
       </c>
     </row>
   </sheetData>

--- a/output/HOD_34867354000150.xlsx
+++ b/output/HOD_34867354000150.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>HOD MULTIPLICA FUNDO DE INVESTIMENTO MULTIMERCADO CRÉDITO PRIVADO INVESTIMENTO NO EXTERIOR</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,139 +383,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43861</v>
       </c>
       <c r="B2">
-        <v>0.009787594280000089</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43890</v>
       </c>
       <c r="B3">
-        <v>0.03327428497999985</v>
-      </c>
-      <c r="C3">
         <v>0.02325904064680673</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43921</v>
       </c>
       <c r="B4">
-        <v>0.1157073022699999</v>
-      </c>
-      <c r="C4">
         <v>0.0797784465250635</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43951</v>
       </c>
       <c r="B5">
-        <v>0.1457184199400001</v>
-      </c>
-      <c r="C5">
         <v>0.0268987373381353</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43982</v>
       </c>
       <c r="B6">
-        <v>0.2205971285000001</v>
-      </c>
-      <c r="C6">
         <v>0.06535524545718774</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>44012</v>
       </c>
       <c r="B7">
-        <v>0.2382159771799999</v>
-      </c>
-      <c r="C7">
         <v>0.01443461422988235</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>44043</v>
       </c>
       <c r="B8">
-        <v>0.2550702672299998</v>
-      </c>
-      <c r="C8">
         <v>0.01361175300643835</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>44074</v>
       </c>
       <c r="B9">
-        <v>0.2743399259899999</v>
-      </c>
-      <c r="C9">
         <v>0.015353450131943</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>44104</v>
       </c>
       <c r="B10">
-        <v>0.2807173696499998</v>
-      </c>
-      <c r="C10">
         <v>0.005004507455140361</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>44135</v>
       </c>
       <c r="B11">
-        <v>0.27920953334</v>
-      </c>
-      <c r="C11">
         <v>-0.001177337284347102</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>44165</v>
       </c>
       <c r="B12">
-        <v>0.2647263146099998</v>
-      </c>
-      <c r="C12">
-        <v>-0.01132200656149318</v>
+        <v>-0.0128591677213743</v>
       </c>
     </row>
   </sheetData>
